--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ptch2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H2">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J2">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20486702040812</v>
+        <v>4.293676666666666</v>
       </c>
       <c r="N2">
-        <v>3.20486702040812</v>
+        <v>12.88103</v>
       </c>
       <c r="O2">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="P2">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="Q2">
-        <v>3.438146081274744</v>
+        <v>6.738600640132222</v>
       </c>
       <c r="R2">
-        <v>3.438146081274744</v>
+        <v>60.64740576119</v>
       </c>
       <c r="S2">
-        <v>0.0556748644051064</v>
+        <v>0.08460648929460261</v>
       </c>
       <c r="T2">
-        <v>0.0556748644051064</v>
+        <v>0.08460648929460263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H3">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J3">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.73001761235459</v>
+        <v>8.749439000000001</v>
       </c>
       <c r="N3">
-        <v>8.73001761235459</v>
+        <v>26.248317</v>
       </c>
       <c r="O3">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378376</v>
       </c>
       <c r="P3">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378377</v>
       </c>
       <c r="Q3">
-        <v>9.365466851586934</v>
+        <v>13.73158246961567</v>
       </c>
       <c r="R3">
-        <v>9.365466851586934</v>
+        <v>123.584242226541</v>
       </c>
       <c r="S3">
-        <v>0.1516576331332893</v>
+        <v>0.1724068611952488</v>
       </c>
       <c r="T3">
-        <v>0.1516576331332893</v>
+        <v>0.1724068611952489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H4">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I4">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J4">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.504934007711711</v>
+        <v>0.6753636666666667</v>
       </c>
       <c r="N4">
-        <v>0.504934007711711</v>
+        <v>2.026091</v>
       </c>
       <c r="O4">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196244</v>
       </c>
       <c r="P4">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196246</v>
       </c>
       <c r="Q4">
-        <v>0.5416876484614008</v>
+        <v>1.059932172315889</v>
       </c>
       <c r="R4">
-        <v>0.5416876484614008</v>
+        <v>9.539389550843001</v>
       </c>
       <c r="S4">
-        <v>0.008771700115437724</v>
+        <v>0.01330797665259616</v>
       </c>
       <c r="T4">
-        <v>0.008771700115437724</v>
+        <v>0.01330797665259616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07278899853914</v>
+        <v>1.569424333333333</v>
       </c>
       <c r="H5">
-        <v>1.07278899853914</v>
+        <v>4.708273</v>
       </c>
       <c r="I5">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="J5">
-        <v>0.2362375195707119</v>
+        <v>0.2941318537634731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.15895422668952</v>
+        <v>1.208355333333333</v>
       </c>
       <c r="N5">
-        <v>1.15895422668952</v>
+        <v>3.625066</v>
       </c>
       <c r="O5">
-        <v>0.08522491242485344</v>
+        <v>0.08095188030934176</v>
       </c>
       <c r="P5">
-        <v>0.08522491242485344</v>
+        <v>0.08095188030934178</v>
       </c>
       <c r="Q5">
-        <v>1.243313344202954</v>
+        <v>1.896422263446444</v>
       </c>
       <c r="R5">
-        <v>1.243313344202954</v>
+        <v>17.067800371018</v>
       </c>
       <c r="S5">
-        <v>0.02013332191687852</v>
+        <v>0.02381052662102549</v>
       </c>
       <c r="T5">
-        <v>0.02013332191687852</v>
+        <v>0.02381052662102549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H6">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I6">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J6">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.20486702040812</v>
+        <v>4.293676666666666</v>
       </c>
       <c r="N6">
-        <v>3.20486702040812</v>
+        <v>12.88103</v>
       </c>
       <c r="O6">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="P6">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="Q6">
-        <v>7.760692485034521</v>
+        <v>10.49587543696</v>
       </c>
       <c r="R6">
-        <v>7.760692485034521</v>
+        <v>94.46287893264</v>
       </c>
       <c r="S6">
-        <v>0.1256710714379613</v>
+        <v>0.1317809468491094</v>
       </c>
       <c r="T6">
-        <v>0.1256710714379613</v>
+        <v>0.1317809468491094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H7">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I7">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J7">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.73001761235459</v>
+        <v>8.749439000000001</v>
       </c>
       <c r="N7">
-        <v>8.73001761235459</v>
+        <v>26.248317</v>
       </c>
       <c r="O7">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378376</v>
       </c>
       <c r="P7">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378377</v>
       </c>
       <c r="Q7">
-        <v>21.14002910167287</v>
+        <v>21.387968637744</v>
       </c>
       <c r="R7">
-        <v>21.14002910167287</v>
+        <v>192.491717739696</v>
       </c>
       <c r="S7">
-        <v>0.3423264241638219</v>
+        <v>0.2685366051826271</v>
       </c>
       <c r="T7">
-        <v>0.3423264241638219</v>
+        <v>0.2685366051826271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H8">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I8">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J8">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.504934007711711</v>
+        <v>0.6753636666666667</v>
       </c>
       <c r="N8">
-        <v>0.504934007711711</v>
+        <v>2.026091</v>
       </c>
       <c r="O8">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196244</v>
       </c>
       <c r="P8">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196246</v>
       </c>
       <c r="Q8">
-        <v>1.222714556995137</v>
+        <v>1.650923781712</v>
       </c>
       <c r="R8">
-        <v>1.222714556995137</v>
+        <v>14.858314035408</v>
       </c>
       <c r="S8">
-        <v>0.01979975997460071</v>
+        <v>0.02072817083590823</v>
       </c>
       <c r="T8">
-        <v>0.01979975997460071</v>
+        <v>0.02072817083590823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.42153338519682</v>
+        <v>2.444496</v>
       </c>
       <c r="H9">
-        <v>2.42153338519682</v>
+        <v>7.333488</v>
       </c>
       <c r="I9">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613356</v>
       </c>
       <c r="J9">
-        <v>0.5332428289771419</v>
+        <v>0.4581324022613355</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15895422668952</v>
+        <v>1.208355333333333</v>
       </c>
       <c r="N9">
-        <v>1.15895422668952</v>
+        <v>3.625066</v>
       </c>
       <c r="O9">
-        <v>0.08522491242485344</v>
+        <v>0.08095188030934176</v>
       </c>
       <c r="P9">
-        <v>0.08522491242485344</v>
+        <v>0.08095188030934178</v>
       </c>
       <c r="Q9">
-        <v>2.806446351843636</v>
+        <v>2.953819778912</v>
       </c>
       <c r="R9">
-        <v>2.806446351843636</v>
+        <v>26.584378010208</v>
       </c>
       <c r="S9">
-        <v>0.04544557340075802</v>
+        <v>0.03708667939369085</v>
       </c>
       <c r="T9">
-        <v>0.04544557340075802</v>
+        <v>0.03708667939369086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.04682332626218</v>
+        <v>0.165334</v>
       </c>
       <c r="H10">
-        <v>1.04682332626218</v>
+        <v>0.4960020000000001</v>
       </c>
       <c r="I10">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="J10">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.20486702040812</v>
+        <v>4.293676666666666</v>
       </c>
       <c r="N10">
-        <v>3.20486702040812</v>
+        <v>12.88103</v>
       </c>
       <c r="O10">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="P10">
-        <v>0.2356732516760171</v>
+        <v>0.2876481693908581</v>
       </c>
       <c r="Q10">
-        <v>3.35492955453159</v>
+        <v>0.7098907380066667</v>
       </c>
       <c r="R10">
-        <v>3.35492955453159</v>
+        <v>6.389016642060001</v>
       </c>
       <c r="S10">
-        <v>0.05432731583294938</v>
+        <v>0.008913031997741313</v>
       </c>
       <c r="T10">
-        <v>0.05432731583294938</v>
+        <v>0.008913031997741315</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.04682332626218</v>
+        <v>0.165334</v>
       </c>
       <c r="H11">
-        <v>1.04682332626218</v>
+        <v>0.4960020000000001</v>
       </c>
       <c r="I11">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="J11">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.73001761235459</v>
+        <v>8.749439000000001</v>
       </c>
       <c r="N11">
-        <v>8.73001761235459</v>
+        <v>26.248317</v>
       </c>
       <c r="O11">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378376</v>
       </c>
       <c r="P11">
-        <v>0.6419709850022121</v>
+        <v>0.5861550151378377</v>
       </c>
       <c r="Q11">
-        <v>9.138786075292447</v>
+        <v>1.446579747626</v>
       </c>
       <c r="R11">
-        <v>9.138786075292447</v>
+        <v>13.019217728634</v>
       </c>
       <c r="S11">
-        <v>0.1479869277051009</v>
+        <v>0.01816252965080101</v>
       </c>
       <c r="T11">
-        <v>0.1479869277051009</v>
+        <v>0.01816252965080101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.04682332626218</v>
+        <v>0.165334</v>
       </c>
       <c r="H12">
-        <v>1.04682332626218</v>
+        <v>0.4960020000000001</v>
       </c>
       <c r="I12">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="J12">
-        <v>0.2305196514521462</v>
+        <v>0.03098588117774611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.504934007711711</v>
+        <v>0.6753636666666667</v>
       </c>
       <c r="N12">
-        <v>0.504934007711711</v>
+        <v>2.026091</v>
       </c>
       <c r="O12">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196244</v>
       </c>
       <c r="P12">
-        <v>0.03713085089691746</v>
+        <v>0.04524493516196246</v>
       </c>
       <c r="Q12">
-        <v>0.5285766974956666</v>
+        <v>0.1116605764646667</v>
       </c>
       <c r="R12">
-        <v>0.5285766974956666</v>
+        <v>1.004945188182</v>
       </c>
       <c r="S12">
-        <v>0.008559390806879022</v>
+        <v>0.001401954184823395</v>
       </c>
       <c r="T12">
-        <v>0.008559390806879022</v>
+        <v>0.001401954184823395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.165334</v>
+      </c>
+      <c r="H13">
+        <v>0.4960020000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="J13">
+        <v>0.03098588117774611</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.208355333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.625066</v>
+      </c>
+      <c r="O13">
+        <v>0.08095188030934176</v>
+      </c>
+      <c r="P13">
+        <v>0.08095188030934178</v>
+      </c>
+      <c r="Q13">
+        <v>0.1997822206813334</v>
+      </c>
+      <c r="R13">
+        <v>1.798039986132</v>
+      </c>
+      <c r="S13">
+        <v>0.002508365344380389</v>
+      </c>
+      <c r="T13">
+        <v>0.002508365344380389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.469592</v>
+      </c>
+      <c r="I14">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J14">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.293676666666666</v>
+      </c>
+      <c r="N14">
+        <v>12.88103</v>
+      </c>
+      <c r="O14">
+        <v>0.2876481693908581</v>
+      </c>
+      <c r="P14">
+        <v>0.2876481693908581</v>
+      </c>
+      <c r="Q14">
+        <v>4.965768737751111</v>
+      </c>
+      <c r="R14">
+        <v>44.69191863976</v>
+      </c>
+      <c r="S14">
+        <v>0.06234770124940479</v>
+      </c>
+      <c r="T14">
+        <v>0.0623477012494048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.469592</v>
+      </c>
+      <c r="I15">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J15">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.749439000000001</v>
+      </c>
+      <c r="N15">
+        <v>26.248317</v>
+      </c>
+      <c r="O15">
+        <v>0.5861550151378376</v>
+      </c>
+      <c r="P15">
+        <v>0.5861550151378377</v>
+      </c>
+      <c r="Q15">
+        <v>10.11899451962933</v>
+      </c>
+      <c r="R15">
+        <v>91.070950676664</v>
+      </c>
+      <c r="S15">
+        <v>0.1270490191091608</v>
+      </c>
+      <c r="T15">
+        <v>0.1270490191091608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="H13">
-        <v>1.04682332626218</v>
-      </c>
-      <c r="I13">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="J13">
-        <v>0.2305196514521462</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.15895422668952</v>
-      </c>
-      <c r="N13">
-        <v>1.15895422668952</v>
-      </c>
-      <c r="O13">
-        <v>0.08522491242485344</v>
-      </c>
-      <c r="P13">
-        <v>0.08522491242485344</v>
-      </c>
-      <c r="Q13">
-        <v>1.213220318568736</v>
-      </c>
-      <c r="R13">
-        <v>1.213220318568736</v>
-      </c>
-      <c r="S13">
-        <v>0.0196460171072169</v>
-      </c>
-      <c r="T13">
-        <v>0.0196460171072169</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.469592</v>
+      </c>
+      <c r="I16">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J16">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6753636666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.026091</v>
+      </c>
+      <c r="O16">
+        <v>0.04524493516196244</v>
+      </c>
+      <c r="P16">
+        <v>0.04524493516196246</v>
+      </c>
+      <c r="Q16">
+        <v>0.7810787916524444</v>
+      </c>
+      <c r="R16">
+        <v>7.029709124872</v>
+      </c>
+      <c r="S16">
+        <v>0.009806833488634668</v>
+      </c>
+      <c r="T16">
+        <v>0.00980683348863467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.156530666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.469592</v>
+      </c>
+      <c r="I17">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="J17">
+        <v>0.2167498627974453</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.208355333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.625066</v>
+      </c>
+      <c r="O17">
+        <v>0.08095188030934176</v>
+      </c>
+      <c r="P17">
+        <v>0.08095188030934178</v>
+      </c>
+      <c r="Q17">
+        <v>1.397499999230222</v>
+      </c>
+      <c r="R17">
+        <v>12.577499993072</v>
+      </c>
+      <c r="S17">
+        <v>0.01754630895024504</v>
+      </c>
+      <c r="T17">
+        <v>0.01754630895024504</v>
       </c>
     </row>
   </sheetData>
